--- a/backend/SubjectRecommender/data/erro.xlsx
+++ b/backend/SubjectRecommender/data/erro.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="75">
   <si>
     <t>Row Number</t>
   </si>
@@ -21,6 +21,222 @@
   </si>
   <si>
     <t>Error Reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk1/2020-2021, 00000117, 202206, Vật lý 2, 2.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t>Dữ liệu điểm không lấy ra được-getValidateNumber()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk1/2020-2021, 00000117, 214201, Nhập môn tin học, 3.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk1/2020-2021, 00000117, 214321, Lập trình cơ bản, 4.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk1/2020-2021, 00000125, 202206, Vật lý 2, 2.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk1/2020-2021, 00000125, 213603, Anh văn 1*, 4.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk1/2020-2021, 00000125, 214201, Nhập môn tin học, 3.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk1/2020-2021, 00000125, 214321, Lập trình cơ bản, 4.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk1/2021-2022, 00000218, 214361, Giao tiếp người _máy, 3.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk1/2021-2022, 00000308, 202108, Toán cao cấp A1, 3.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk1/2021-2022, 00000308, 202109, Toán cao cấp A2, 3.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk1/2021-2022, 00000308, 202206, Vật lý 2, 2.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk1/2021-2022, 00000308, 214201, Nhập môn tin học, 3.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk1/2021-2022, 00000308, 214321, Lập trình cơ bản, 4.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk1/2021-2022, 00000312, 202108, Toán cao cấp A1, 3.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk1/2021-2022, 00000312, 202109, Toán cao cấp A2, 3.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk1/2021-2022, 00000312, 202206, Vật lý 2, 2.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk1/2021-2022, 00000312, 214201, Nhập môn tin học, 3.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk1/2021-2022, 00000312, 214321, Lập trình cơ bản, 4.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk1/2021-2022, 00000342, 202109, Toán cao cấp A2, 3.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk1/2021-2022, 00000342, 214201, Nhập môn tin học, 3.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk1/2021-2022, 00000342, 214321, Lập trình cơ bản, 4.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk1/2021-2022, 00000346, 202108, Toán cao cấp A1, 3.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk1/2021-2022, 00000346, 202109, Toán cao cấp A2, 3.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk1/2021-2022, 00000346, 202206, Vật lý 2, 2.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk1/2021-2022, 00000346, 214201, Nhập môn tin học, 3.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk1/2021-2022, 00000346, 214321, Lập trình cơ bản, 4.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk1/2021-2022, 00000364, 202108, Toán cao cấp A1, 3.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk1/2021-2022, 00000364, 202109, Toán cao cấp A2, 3.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk1/2021-2022, 00000364, 202206, Vật lý 2, 2.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk1/2021-2022, 00000364, 214201, Nhập môn tin học, 3.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk1/2021-2022, 00000364, 214321, Lập trình cơ bản, 4.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk1/2021-2022, 00000571, 214201, Nhập môn tin học, 3.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk1/2021-2022, 00000571, 214321, Lập trình cơ bản, 4.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk2/2021-2022, 00000308, 202110, Toán cao cấp A3, 3.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk2/2021-2022, 00000308, 214231, Cấu trúc máy tính, 2.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk2/2021-2022, 00000308, 214242, Nhập môn hệ điều hành, 3.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk2/2021-2022, 00000308, 214331, Lập trình nâng cao, 4.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk2/2021-2022, 00000342, 202110, Toán cao cấp A3, 3.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk2/2021-2022, 00000342, 214231, Cấu trúc máy tính, 2.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk2/2021-2022, 00000342, 214242, Nhập môn hệ điều hành, 3.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk2/2021-2022, 00000342, 214331, Lập trình nâng cao, 4.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk2/2021-2022, 00000346, 202110, Toán cao cấp A3, 3.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk2/2021-2022, 00000346, 214231, Cấu trúc máy tính, 2.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk2/2021-2022, 00000346, 214242, Nhập môn hệ điều hành, 3.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk2/2021-2022, 00000346, 214331, Lập trình nâng cao, 4.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk2/2021-2022, 00000364, 202110, Toán cao cấp A3, 3.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk2/2021-2022, 00000364, 214231, Cấu trúc máy tính, 2.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk2/2021-2022, 00000364, 214242, Nhập môn hệ điều hành, 3.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk2/2021-2022, 00000364, 214331, Lập trình nâng cao, 4.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk2/2021-2022, 00000571, 202110, Toán cao cấp A3, 3.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk2/2021-2022, 00000571, 214231, Cấu trúc máy tính, 2.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk2/2021-2022, 00000571, 214242, Nhập môn hệ điều hành, 3.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk2/2021-2022, 00000571, 214331, Lập trình nâng cao, 4.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk1/2022-2023, 00000426, 214361, Giao tiếp người _máy, 3.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk1/2022-2023, 00000630, 202121, Xác suất thống kê, 3.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk1/2022-2023, 00000630, 202622, Pháp luật đại cương, 2.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk1/2022-2023, 00000630, 214241, Mạng máy tính cơ bản, 3.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk1/2022-2023, 00000630, 214361, Giao tiếp người _máy, 3.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk1/2022-2023, 00000630, 214441, Cấu trúc dữ liệu, 4.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk2/2022-2023, 00000218, 213604, Anh văn 2*, 3.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk2/2022-2023, 00000218, 214274, Lập trình trên thiết bị di động, 3.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk2/2022-2023, 00000218, 214370, Nhập môn công nghệ phần mềm, 4.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk2/2022-2023, 00000218, 214461, Phân tích và thiết kế hệ thống thông tin, 4.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk2/2022-2023, 00000426, 214251, Hệ điều hành nâng cao, 3.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk2/2022-2023, 00000426, 214351, Lý thuyết đồ thị, 4.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk2/2022-2023, 00000426, 214352, Thiết kế hướng đối tượng, 4.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk2/2022-2023, 00000426, 214442, Nhập môn cơ sở dữ liệu, 4.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk2/2022-2023, 00000892, 202110, Toán cao cấp A3, 3.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk2/2022-2023, 00000892, 214231, Cấu trúc máy tính, 2.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk2/2022-2023, 00000892, 214242, Nhập môn hệ điều hành, 3.0, #VALUE!, 0.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk2/2022-2023, 00000892, 214331, Lập trình nâng cao, 4.0, #VALUE!, 0.0, </t>
   </si>
 </sst>
 </file>
@@ -65,15 +281,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="12.8125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="9.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.58984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="86.3203125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="48.734375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -87,6 +303,787 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>598.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>599.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="0">
+        <v>600.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="0">
+        <v>638.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n" s="0">
+        <v>639.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="0">
+        <v>640.0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n" s="0">
+        <v>641.0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="0">
+        <v>3797.0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="0">
+        <v>4268.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n" s="0">
+        <v>4269.0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n" s="0">
+        <v>4270.0</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n" s="0">
+        <v>4271.0</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n" s="0">
+        <v>4272.0</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n" s="0">
+        <v>4288.0</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n" s="0">
+        <v>4289.0</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n" s="0">
+        <v>4290.0</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n" s="0">
+        <v>4291.0</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n" s="0">
+        <v>4292.0</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n" s="0">
+        <v>4437.0</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n" s="0">
+        <v>4439.0</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n" s="0">
+        <v>4440.0</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n" s="0">
+        <v>4456.0</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n" s="0">
+        <v>4457.0</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n" s="0">
+        <v>4458.0</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n" s="0">
+        <v>4459.0</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n" s="0">
+        <v>4460.0</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n" s="0">
+        <v>4540.0</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="0">
+        <v>4541.0</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="0">
+        <v>4542.0</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="0">
+        <v>4543.0</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="0">
+        <v>4544.0</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="0">
+        <v>5546.0</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="0">
+        <v>5547.0</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n" s="0">
+        <v>6991.0</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n" s="0">
+        <v>6992.0</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n" s="0">
+        <v>6993.0</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n" s="0">
+        <v>6994.0</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="0">
+        <v>7124.0</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="0">
+        <v>7125.0</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n" s="0">
+        <v>7126.0</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="0">
+        <v>7127.0</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="0">
+        <v>7140.0</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="0">
+        <v>7141.0</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n" s="0">
+        <v>7142.0</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n" s="0">
+        <v>7143.0</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n" s="0">
+        <v>7210.0</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n" s="0">
+        <v>7211.0</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n" s="0">
+        <v>7212.0</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n" s="0">
+        <v>7213.0</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n" s="0">
+        <v>8026.0</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n" s="0">
+        <v>8027.0</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n" s="0">
+        <v>8028.0</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n" s="0">
+        <v>8029.0</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n" s="0">
+        <v>10150.0</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n" s="0">
+        <v>11363.0</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n" s="0">
+        <v>11364.0</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n" s="0">
+        <v>11365.0</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n" s="0">
+        <v>11366.0</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n" s="0">
+        <v>11367.0</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n" s="0">
+        <v>13636.0</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n" s="0">
+        <v>13637.0</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n" s="0">
+        <v>13638.0</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n" s="0">
+        <v>13639.0</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n" s="0">
+        <v>14429.0</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n" s="0">
+        <v>14430.0</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n" s="0">
+        <v>14431.0</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n" s="0">
+        <v>14432.0</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n" s="0">
+        <v>16403.0</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n" s="0">
+        <v>16404.0</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n" s="0">
+        <v>16405.0</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n" s="0">
+        <v>16406.0</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
